--- a/일괄등록/용기라면.xlsx
+++ b/일괄등록/용기라면.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Work\20170801_Tongup_2\일괄등록\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="180" windowWidth="28035" windowHeight="12045"/>
   </bookViews>
   <sheets>
     <sheet name="일괄등록 양식" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -2552,7 +2557,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -2753,6 +2758,167 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2885,7 +3051,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2991,8 +3157,110 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="21" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -3096,7 +3364,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3131,7 +3399,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3342,8 +3610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CJ74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BV1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="CK71" sqref="CK71"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O73" sqref="O73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9554,335 +9822,335 @@
       <c r="CJ37" s="13"/>
     </row>
     <row r="38" spans="1:88" s="16" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="13"/>
-      <c r="B38" s="20">
+      <c r="A38" s="35"/>
+      <c r="B38" s="22">
         <v>3495</v>
       </c>
-      <c r="C38" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="E38" s="13">
+      <c r="C38" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="D38" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="E38" s="35">
         <v>25</v>
       </c>
-      <c r="F38" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="G38" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="H38" s="25" t="s">
+      <c r="F38" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="G38" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="H38" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="13"/>
-      <c r="N38" s="13"/>
-      <c r="O38" s="2" t="s">
+      <c r="I38" s="35"/>
+      <c r="J38" s="35"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="35"/>
+      <c r="M38" s="35"/>
+      <c r="N38" s="35"/>
+      <c r="O38" s="36" t="s">
         <v>214</v>
       </c>
-      <c r="P38" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q38" s="13"/>
-      <c r="R38" s="13" t="s">
+      <c r="P38" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q38" s="35"/>
+      <c r="R38" s="35" t="s">
         <v>251</v>
       </c>
-      <c r="S38" s="13" t="s">
+      <c r="S38" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="T38" s="13"/>
-      <c r="U38" s="30">
+      <c r="T38" s="35"/>
+      <c r="U38" s="33">
         <v>1200</v>
       </c>
-      <c r="V38" s="30">
+      <c r="V38" s="33">
         <v>1200</v>
       </c>
-      <c r="W38" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="X38" s="13"/>
-      <c r="Y38" s="13" t="s">
+      <c r="W38" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="X38" s="35"/>
+      <c r="Y38" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="Z38" s="13">
+      <c r="Z38" s="35">
         <v>1</v>
       </c>
-      <c r="AA38" s="13"/>
-      <c r="AB38" s="13"/>
-      <c r="AC38" s="13"/>
-      <c r="AD38" s="13"/>
-      <c r="AE38" s="13"/>
-      <c r="AF38" s="13"/>
-      <c r="AG38" s="13"/>
-      <c r="AH38" s="13"/>
-      <c r="AI38" s="13"/>
-      <c r="AJ38" s="13"/>
-      <c r="AK38" s="13"/>
-      <c r="AL38" s="13"/>
-      <c r="AM38" s="13"/>
-      <c r="AN38" s="13"/>
-      <c r="AO38" s="13"/>
-      <c r="AP38" s="13" t="s">
+      <c r="AA38" s="35"/>
+      <c r="AB38" s="35"/>
+      <c r="AC38" s="35"/>
+      <c r="AD38" s="35"/>
+      <c r="AE38" s="35"/>
+      <c r="AF38" s="35"/>
+      <c r="AG38" s="35"/>
+      <c r="AH38" s="35"/>
+      <c r="AI38" s="35"/>
+      <c r="AJ38" s="35"/>
+      <c r="AK38" s="35"/>
+      <c r="AL38" s="35"/>
+      <c r="AM38" s="35"/>
+      <c r="AN38" s="35"/>
+      <c r="AO38" s="35"/>
+      <c r="AP38" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="AQ38" s="13"/>
-      <c r="AR38" s="13"/>
-      <c r="AS38" s="13"/>
-      <c r="AT38" s="12" t="s">
+      <c r="AQ38" s="35"/>
+      <c r="AR38" s="35"/>
+      <c r="AS38" s="35"/>
+      <c r="AT38" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="AU38" s="2" t="s">
+      <c r="AU38" s="36" t="s">
         <v>433</v>
       </c>
-      <c r="AV38" s="2" t="s">
+      <c r="AV38" s="36" t="s">
         <v>434</v>
       </c>
-      <c r="AW38" s="2" t="s">
+      <c r="AW38" s="36" t="s">
         <v>435</v>
       </c>
-      <c r="AX38" s="1" t="s">
+      <c r="AX38" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="AY38" s="14"/>
-      <c r="AZ38" s="13"/>
-      <c r="BA38" s="13"/>
-      <c r="BB38" s="13"/>
-      <c r="BC38" s="13"/>
-      <c r="BD38" s="13"/>
-      <c r="BE38" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="BF38" s="13"/>
-      <c r="BG38" s="13">
+      <c r="AY38" s="38"/>
+      <c r="AZ38" s="35"/>
+      <c r="BA38" s="35"/>
+      <c r="BB38" s="35"/>
+      <c r="BC38" s="35"/>
+      <c r="BD38" s="35"/>
+      <c r="BE38" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="BF38" s="35"/>
+      <c r="BG38" s="35">
         <v>1798</v>
       </c>
-      <c r="BH38" s="13"/>
-      <c r="BI38" s="13"/>
-      <c r="BJ38" s="13"/>
-      <c r="BK38" s="13"/>
-      <c r="BL38" s="17"/>
-      <c r="BM38" s="13" t="s">
+      <c r="BH38" s="35"/>
+      <c r="BI38" s="35"/>
+      <c r="BJ38" s="35"/>
+      <c r="BK38" s="35"/>
+      <c r="BL38" s="39"/>
+      <c r="BM38" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="BN38" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="BO38" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="BP38" s="13"/>
-      <c r="BQ38" s="13" t="s">
+      <c r="BN38" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="BO38" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="BP38" s="35"/>
+      <c r="BQ38" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="BR38" s="13"/>
-      <c r="BS38" s="13" t="s">
+      <c r="BR38" s="35"/>
+      <c r="BS38" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="BT38" s="2" t="s">
+      <c r="BT38" s="36" t="s">
         <v>544</v>
       </c>
-      <c r="BU38" s="13"/>
-      <c r="BV38" s="13"/>
-      <c r="BW38" s="13"/>
-      <c r="BX38" s="13"/>
-      <c r="BY38" s="13"/>
-      <c r="BZ38" s="13"/>
-      <c r="CA38" s="13"/>
-      <c r="CB38" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="CC38" s="13" t="s">
+      <c r="BU38" s="35"/>
+      <c r="BV38" s="35"/>
+      <c r="BW38" s="35"/>
+      <c r="BX38" s="35"/>
+      <c r="BY38" s="35"/>
+      <c r="BZ38" s="35"/>
+      <c r="CA38" s="35"/>
+      <c r="CB38" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="CC38" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="CD38" s="13" t="s">
+      <c r="CD38" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="CE38" s="13" t="s">
+      <c r="CE38" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="CF38" s="2" t="s">
+      <c r="CF38" s="36" t="s">
         <v>586</v>
       </c>
-      <c r="CG38" s="20" t="s">
+      <c r="CG38" s="22" t="s">
         <v>659</v>
       </c>
-      <c r="CH38" s="13" t="s">
+      <c r="CH38" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="CI38" s="13"/>
-      <c r="CJ38" s="13"/>
+      <c r="CI38" s="35"/>
+      <c r="CJ38" s="35"/>
     </row>
     <row r="39" spans="1:88" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="13"/>
-      <c r="B39" s="21">
+      <c r="A39" s="46"/>
+      <c r="B39" s="18">
         <v>6008</v>
       </c>
-      <c r="C39" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="E39" s="13">
+      <c r="C39" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="D39" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="E39" s="47">
         <v>25</v>
       </c>
-      <c r="F39" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="G39" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="H39" s="26" t="s">
+      <c r="F39" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="G39" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="H39" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="13"/>
-      <c r="L39" s="13"/>
-      <c r="M39" s="13"/>
-      <c r="N39" s="13"/>
-      <c r="O39" s="2" t="s">
+      <c r="I39" s="47"/>
+      <c r="J39" s="47"/>
+      <c r="K39" s="47"/>
+      <c r="L39" s="47"/>
+      <c r="M39" s="47"/>
+      <c r="N39" s="47"/>
+      <c r="O39" s="48" t="s">
         <v>215</v>
       </c>
-      <c r="P39" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q39" s="13"/>
-      <c r="R39" s="13" t="s">
+      <c r="P39" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q39" s="47"/>
+      <c r="R39" s="47" t="s">
         <v>251</v>
       </c>
-      <c r="S39" s="13" t="s">
+      <c r="S39" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="T39" s="13"/>
-      <c r="U39" s="31">
+      <c r="T39" s="47"/>
+      <c r="U39" s="28">
         <v>950</v>
       </c>
-      <c r="V39" s="31">
+      <c r="V39" s="28">
         <v>950</v>
       </c>
-      <c r="W39" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="X39" s="13"/>
-      <c r="Y39" s="13" t="s">
+      <c r="W39" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="X39" s="47"/>
+      <c r="Y39" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="Z39" s="13">
+      <c r="Z39" s="47">
         <v>1</v>
       </c>
-      <c r="AA39" s="13"/>
-      <c r="AB39" s="13"/>
-      <c r="AC39" s="13"/>
-      <c r="AD39" s="13"/>
-      <c r="AE39" s="13"/>
-      <c r="AF39" s="13"/>
-      <c r="AG39" s="13"/>
-      <c r="AH39" s="13"/>
-      <c r="AI39" s="13"/>
-      <c r="AJ39" s="13"/>
-      <c r="AK39" s="13"/>
-      <c r="AL39" s="13"/>
-      <c r="AM39" s="13"/>
-      <c r="AN39" s="13"/>
-      <c r="AO39" s="13"/>
-      <c r="AP39" s="13" t="s">
+      <c r="AA39" s="47"/>
+      <c r="AB39" s="47"/>
+      <c r="AC39" s="47"/>
+      <c r="AD39" s="47"/>
+      <c r="AE39" s="47"/>
+      <c r="AF39" s="47"/>
+      <c r="AG39" s="47"/>
+      <c r="AH39" s="47"/>
+      <c r="AI39" s="47"/>
+      <c r="AJ39" s="47"/>
+      <c r="AK39" s="47"/>
+      <c r="AL39" s="47"/>
+      <c r="AM39" s="47"/>
+      <c r="AN39" s="47"/>
+      <c r="AO39" s="47"/>
+      <c r="AP39" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="AQ39" s="13"/>
-      <c r="AR39" s="13"/>
-      <c r="AS39" s="13"/>
-      <c r="AT39" s="34" t="s">
+      <c r="AQ39" s="47"/>
+      <c r="AR39" s="47"/>
+      <c r="AS39" s="47"/>
+      <c r="AT39" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="AU39" s="2" t="s">
+      <c r="AU39" s="48" t="s">
         <v>436</v>
       </c>
-      <c r="AV39" s="2" t="s">
+      <c r="AV39" s="48" t="s">
         <v>437</v>
       </c>
-      <c r="AW39" s="2" t="s">
+      <c r="AW39" s="48" t="s">
         <v>438</v>
       </c>
-      <c r="AX39" s="1" t="s">
+      <c r="AX39" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="AY39" s="14"/>
-      <c r="AZ39" s="13"/>
-      <c r="BA39" s="13"/>
-      <c r="BB39" s="13"/>
-      <c r="BC39" s="13"/>
-      <c r="BD39" s="13"/>
-      <c r="BE39" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="BF39" s="13"/>
-      <c r="BG39" s="13">
+      <c r="AY39" s="50"/>
+      <c r="AZ39" s="47"/>
+      <c r="BA39" s="47"/>
+      <c r="BB39" s="47"/>
+      <c r="BC39" s="47"/>
+      <c r="BD39" s="47"/>
+      <c r="BE39" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="BF39" s="47"/>
+      <c r="BG39" s="47">
         <v>1798</v>
       </c>
-      <c r="BH39" s="13"/>
-      <c r="BI39" s="13"/>
-      <c r="BJ39" s="13"/>
-      <c r="BK39" s="13"/>
-      <c r="BL39" s="17"/>
-      <c r="BM39" s="13" t="s">
+      <c r="BH39" s="47"/>
+      <c r="BI39" s="47"/>
+      <c r="BJ39" s="47"/>
+      <c r="BK39" s="47"/>
+      <c r="BL39" s="51"/>
+      <c r="BM39" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="BN39" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="BO39" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="BP39" s="13"/>
-      <c r="BQ39" s="13" t="s">
+      <c r="BN39" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="BO39" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="BP39" s="52"/>
+      <c r="BQ39" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="BR39" s="13"/>
-      <c r="BS39" s="13" t="s">
+      <c r="BR39" s="52"/>
+      <c r="BS39" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="BT39" s="2" t="s">
+      <c r="BT39" s="53" t="s">
         <v>544</v>
       </c>
-      <c r="BU39" s="13"/>
-      <c r="BV39" s="13"/>
-      <c r="BW39" s="13"/>
-      <c r="BX39" s="13"/>
-      <c r="BY39" s="13"/>
-      <c r="BZ39" s="13"/>
-      <c r="CA39" s="13"/>
-      <c r="CB39" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="CC39" s="13" t="s">
+      <c r="BU39" s="52"/>
+      <c r="BV39" s="52"/>
+      <c r="BW39" s="52"/>
+      <c r="BX39" s="52"/>
+      <c r="BY39" s="52"/>
+      <c r="BZ39" s="52"/>
+      <c r="CA39" s="52"/>
+      <c r="CB39" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="CC39" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="CD39" s="13" t="s">
+      <c r="CD39" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="CE39" s="13" t="s">
+      <c r="CE39" s="52" t="s">
         <v>97</v>
       </c>
-      <c r="CF39" s="2" t="s">
+      <c r="CF39" s="53" t="s">
         <v>587</v>
       </c>
-      <c r="CG39" s="21" t="s">
+      <c r="CG39" s="54" t="s">
         <v>660</v>
       </c>
-      <c r="CH39" s="13" t="s">
+      <c r="CH39" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="CI39" s="13"/>
-      <c r="CJ39" s="13"/>
+      <c r="CI39" s="52"/>
+      <c r="CJ39" s="55"/>
     </row>
     <row r="40" spans="1:88" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="13"/>
+      <c r="A40" s="56"/>
       <c r="B40" s="19">
         <v>6009</v>
       </c>
@@ -10043,10 +10311,10 @@
         <v>95</v>
       </c>
       <c r="CI40" s="13"/>
-      <c r="CJ40" s="13"/>
+      <c r="CJ40" s="57"/>
     </row>
     <row r="41" spans="1:88" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="13"/>
+      <c r="A41" s="56"/>
       <c r="B41" s="19">
         <v>5925</v>
       </c>
@@ -10207,10 +10475,10 @@
         <v>95</v>
       </c>
       <c r="CI41" s="13"/>
-      <c r="CJ41" s="13"/>
+      <c r="CJ41" s="57"/>
     </row>
     <row r="42" spans="1:88" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="13"/>
+      <c r="A42" s="56"/>
       <c r="B42" s="19">
         <v>5924</v>
       </c>
@@ -10371,10 +10639,10 @@
         <v>95</v>
       </c>
       <c r="CI42" s="13"/>
-      <c r="CJ42" s="13"/>
+      <c r="CJ42" s="57"/>
     </row>
     <row r="43" spans="1:88" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="13"/>
+      <c r="A43" s="56"/>
       <c r="B43" s="19">
         <v>6021</v>
       </c>
@@ -10535,10 +10803,10 @@
         <v>95</v>
       </c>
       <c r="CI43" s="13"/>
-      <c r="CJ43" s="13"/>
+      <c r="CJ43" s="57"/>
     </row>
     <row r="44" spans="1:88" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="13"/>
+      <c r="A44" s="56"/>
       <c r="B44" s="19">
         <v>6040</v>
       </c>
@@ -10699,10 +10967,10 @@
         <v>95</v>
       </c>
       <c r="CI44" s="13"/>
-      <c r="CJ44" s="13"/>
+      <c r="CJ44" s="57"/>
     </row>
     <row r="45" spans="1:88" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="13"/>
+      <c r="A45" s="56"/>
       <c r="B45" s="19">
         <v>6017</v>
       </c>
@@ -10863,335 +11131,335 @@
         <v>95</v>
       </c>
       <c r="CI45" s="13"/>
-      <c r="CJ45" s="13"/>
+      <c r="CJ45" s="57"/>
     </row>
     <row r="46" spans="1:88" s="16" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="13"/>
-      <c r="B46" s="22">
+      <c r="A46" s="58"/>
+      <c r="B46" s="20">
         <v>6036</v>
       </c>
-      <c r="C46" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="D46" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="E46" s="13">
+      <c r="C46" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="D46" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="E46" s="59">
         <v>25</v>
       </c>
-      <c r="F46" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="G46" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="H46" s="27" t="s">
+      <c r="F46" s="59" t="s">
+        <v>92</v>
+      </c>
+      <c r="G46" s="59" t="s">
+        <v>92</v>
+      </c>
+      <c r="H46" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="I46" s="13"/>
-      <c r="J46" s="13"/>
-      <c r="K46" s="13"/>
-      <c r="L46" s="13"/>
-      <c r="M46" s="13"/>
-      <c r="N46" s="13"/>
-      <c r="O46" s="2" t="s">
+      <c r="I46" s="59"/>
+      <c r="J46" s="59"/>
+      <c r="K46" s="59"/>
+      <c r="L46" s="59"/>
+      <c r="M46" s="59"/>
+      <c r="N46" s="59"/>
+      <c r="O46" s="60" t="s">
         <v>222</v>
       </c>
-      <c r="P46" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q46" s="13"/>
-      <c r="R46" s="13" t="s">
+      <c r="P46" s="59" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q46" s="59"/>
+      <c r="R46" s="59" t="s">
         <v>251</v>
       </c>
-      <c r="S46" s="13" t="s">
+      <c r="S46" s="59" t="s">
         <v>88</v>
       </c>
-      <c r="T46" s="13"/>
-      <c r="U46" s="33">
+      <c r="T46" s="59"/>
+      <c r="U46" s="30">
         <v>1050</v>
       </c>
-      <c r="V46" s="33">
+      <c r="V46" s="30">
         <v>1050</v>
       </c>
-      <c r="W46" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="X46" s="13"/>
-      <c r="Y46" s="13" t="s">
+      <c r="W46" s="59" t="s">
+        <v>92</v>
+      </c>
+      <c r="X46" s="59"/>
+      <c r="Y46" s="59" t="s">
         <v>93</v>
       </c>
-      <c r="Z46" s="13">
+      <c r="Z46" s="59">
         <v>1</v>
       </c>
-      <c r="AA46" s="13"/>
-      <c r="AB46" s="13"/>
-      <c r="AC46" s="13"/>
-      <c r="AD46" s="13"/>
-      <c r="AE46" s="13"/>
-      <c r="AF46" s="13"/>
-      <c r="AG46" s="13"/>
-      <c r="AH46" s="13"/>
-      <c r="AI46" s="13"/>
-      <c r="AJ46" s="13"/>
-      <c r="AK46" s="13"/>
-      <c r="AL46" s="13"/>
-      <c r="AM46" s="13"/>
-      <c r="AN46" s="13"/>
-      <c r="AO46" s="13"/>
-      <c r="AP46" s="13" t="s">
+      <c r="AA46" s="59"/>
+      <c r="AB46" s="59"/>
+      <c r="AC46" s="59"/>
+      <c r="AD46" s="59"/>
+      <c r="AE46" s="59"/>
+      <c r="AF46" s="59"/>
+      <c r="AG46" s="59"/>
+      <c r="AH46" s="59"/>
+      <c r="AI46" s="59"/>
+      <c r="AJ46" s="59"/>
+      <c r="AK46" s="59"/>
+      <c r="AL46" s="59"/>
+      <c r="AM46" s="59"/>
+      <c r="AN46" s="59"/>
+      <c r="AO46" s="59"/>
+      <c r="AP46" s="59" t="s">
         <v>98</v>
       </c>
-      <c r="AQ46" s="13"/>
-      <c r="AR46" s="13"/>
-      <c r="AS46" s="13"/>
-      <c r="AT46" s="10" t="s">
+      <c r="AQ46" s="59"/>
+      <c r="AR46" s="59"/>
+      <c r="AS46" s="59"/>
+      <c r="AT46" s="12" t="s">
         <v>296</v>
       </c>
-      <c r="AU46" s="2" t="s">
+      <c r="AU46" s="60" t="s">
         <v>457</v>
       </c>
-      <c r="AV46" s="2" t="s">
+      <c r="AV46" s="60" t="s">
         <v>458</v>
       </c>
-      <c r="AW46" s="2" t="s">
+      <c r="AW46" s="60" t="s">
         <v>459</v>
       </c>
-      <c r="AX46" s="1" t="s">
+      <c r="AX46" s="61" t="s">
         <v>101</v>
       </c>
-      <c r="AY46" s="14"/>
-      <c r="AZ46" s="13"/>
-      <c r="BA46" s="13"/>
-      <c r="BB46" s="13"/>
-      <c r="BC46" s="13"/>
-      <c r="BD46" s="13"/>
-      <c r="BE46" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="BF46" s="13"/>
-      <c r="BG46" s="13">
+      <c r="AY46" s="62"/>
+      <c r="AZ46" s="59"/>
+      <c r="BA46" s="59"/>
+      <c r="BB46" s="59"/>
+      <c r="BC46" s="59"/>
+      <c r="BD46" s="59"/>
+      <c r="BE46" s="59" t="s">
+        <v>92</v>
+      </c>
+      <c r="BF46" s="59"/>
+      <c r="BG46" s="59">
         <v>1798</v>
       </c>
-      <c r="BH46" s="13"/>
-      <c r="BI46" s="13"/>
-      <c r="BJ46" s="13"/>
-      <c r="BK46" s="13"/>
-      <c r="BL46" s="17"/>
-      <c r="BM46" s="13" t="s">
+      <c r="BH46" s="59"/>
+      <c r="BI46" s="59"/>
+      <c r="BJ46" s="59"/>
+      <c r="BK46" s="59"/>
+      <c r="BL46" s="63"/>
+      <c r="BM46" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="BN46" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="BO46" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="BP46" s="13"/>
-      <c r="BQ46" s="13" t="s">
+      <c r="BN46" s="59" t="s">
+        <v>87</v>
+      </c>
+      <c r="BO46" s="59" t="s">
+        <v>87</v>
+      </c>
+      <c r="BP46" s="59"/>
+      <c r="BQ46" s="59" t="s">
         <v>91</v>
       </c>
-      <c r="BR46" s="13"/>
-      <c r="BS46" s="13" t="s">
+      <c r="BR46" s="59"/>
+      <c r="BS46" s="59" t="s">
         <v>90</v>
       </c>
-      <c r="BT46" s="2" t="s">
+      <c r="BT46" s="60" t="s">
         <v>544</v>
       </c>
-      <c r="BU46" s="13"/>
-      <c r="BV46" s="13"/>
-      <c r="BW46" s="13"/>
-      <c r="BX46" s="13"/>
-      <c r="BY46" s="13"/>
-      <c r="BZ46" s="13"/>
-      <c r="CA46" s="13"/>
-      <c r="CB46" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="CC46" s="13" t="s">
+      <c r="BU46" s="59"/>
+      <c r="BV46" s="59"/>
+      <c r="BW46" s="59"/>
+      <c r="BX46" s="59"/>
+      <c r="BY46" s="59"/>
+      <c r="BZ46" s="59"/>
+      <c r="CA46" s="59"/>
+      <c r="CB46" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="CC46" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="CD46" s="13" t="s">
+      <c r="CD46" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="CE46" s="13" t="s">
+      <c r="CE46" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="CF46" s="2" t="s">
+      <c r="CF46" s="60" t="s">
         <v>594</v>
       </c>
-      <c r="CG46" s="22" t="s">
+      <c r="CG46" s="20" t="s">
         <v>667</v>
       </c>
-      <c r="CH46" s="13" t="s">
+      <c r="CH46" s="59" t="s">
         <v>95</v>
       </c>
-      <c r="CI46" s="13"/>
-      <c r="CJ46" s="13"/>
+      <c r="CI46" s="59"/>
+      <c r="CJ46" s="64"/>
     </row>
     <row r="47" spans="1:88" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="13"/>
-      <c r="B47" s="18">
+      <c r="A47" s="40"/>
+      <c r="B47" s="21">
         <v>5810</v>
       </c>
-      <c r="C47" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="D47" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="E47" s="13">
+      <c r="C47" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="D47" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="E47" s="40">
         <v>25</v>
       </c>
-      <c r="F47" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="G47" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="H47" s="23" t="s">
+      <c r="F47" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="G47" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="H47" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="I47" s="13"/>
-      <c r="J47" s="13"/>
-      <c r="K47" s="13"/>
-      <c r="L47" s="13"/>
-      <c r="M47" s="13"/>
-      <c r="N47" s="13"/>
-      <c r="O47" s="2" t="s">
+      <c r="I47" s="40"/>
+      <c r="J47" s="40"/>
+      <c r="K47" s="40"/>
+      <c r="L47" s="40"/>
+      <c r="M47" s="40"/>
+      <c r="N47" s="40"/>
+      <c r="O47" s="41" t="s">
         <v>223</v>
       </c>
-      <c r="P47" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q47" s="13"/>
-      <c r="R47" s="13" t="s">
+      <c r="P47" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q47" s="40"/>
+      <c r="R47" s="40" t="s">
         <v>251</v>
       </c>
-      <c r="S47" s="13" t="s">
+      <c r="S47" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="T47" s="13"/>
-      <c r="U47" s="28">
+      <c r="T47" s="40"/>
+      <c r="U47" s="31">
         <v>1200</v>
       </c>
-      <c r="V47" s="28">
+      <c r="V47" s="31">
         <v>1200</v>
       </c>
-      <c r="W47" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="X47" s="13"/>
-      <c r="Y47" s="13" t="s">
+      <c r="W47" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="X47" s="40"/>
+      <c r="Y47" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="Z47" s="13">
+      <c r="Z47" s="40">
         <v>1</v>
       </c>
-      <c r="AA47" s="13"/>
-      <c r="AB47" s="13"/>
-      <c r="AC47" s="13"/>
-      <c r="AD47" s="13"/>
-      <c r="AE47" s="13"/>
-      <c r="AF47" s="13"/>
-      <c r="AG47" s="13"/>
-      <c r="AH47" s="13"/>
-      <c r="AI47" s="13"/>
-      <c r="AJ47" s="13"/>
-      <c r="AK47" s="13"/>
-      <c r="AL47" s="13"/>
-      <c r="AM47" s="13"/>
-      <c r="AN47" s="13"/>
-      <c r="AO47" s="13"/>
-      <c r="AP47" s="13" t="s">
+      <c r="AA47" s="40"/>
+      <c r="AB47" s="40"/>
+      <c r="AC47" s="40"/>
+      <c r="AD47" s="40"/>
+      <c r="AE47" s="40"/>
+      <c r="AF47" s="40"/>
+      <c r="AG47" s="40"/>
+      <c r="AH47" s="40"/>
+      <c r="AI47" s="40"/>
+      <c r="AJ47" s="40"/>
+      <c r="AK47" s="40"/>
+      <c r="AL47" s="40"/>
+      <c r="AM47" s="40"/>
+      <c r="AN47" s="40"/>
+      <c r="AO47" s="40"/>
+      <c r="AP47" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="AQ47" s="13"/>
-      <c r="AR47" s="13"/>
-      <c r="AS47" s="13"/>
-      <c r="AT47" s="11" t="s">
+      <c r="AQ47" s="40"/>
+      <c r="AR47" s="40"/>
+      <c r="AS47" s="40"/>
+      <c r="AT47" s="34" t="s">
         <v>297</v>
       </c>
-      <c r="AU47" s="2" t="s">
+      <c r="AU47" s="41" t="s">
         <v>460</v>
       </c>
-      <c r="AV47" s="2" t="s">
+      <c r="AV47" s="41" t="s">
         <v>461</v>
       </c>
-      <c r="AW47" s="2" t="s">
+      <c r="AW47" s="41" t="s">
         <v>462</v>
       </c>
-      <c r="AX47" s="1" t="s">
+      <c r="AX47" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="AY47" s="14"/>
-      <c r="AZ47" s="13"/>
-      <c r="BA47" s="13"/>
-      <c r="BB47" s="13"/>
-      <c r="BC47" s="13"/>
-      <c r="BD47" s="13"/>
-      <c r="BE47" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="BF47" s="13"/>
-      <c r="BG47" s="13">
+      <c r="AY47" s="43"/>
+      <c r="AZ47" s="40"/>
+      <c r="BA47" s="40"/>
+      <c r="BB47" s="40"/>
+      <c r="BC47" s="40"/>
+      <c r="BD47" s="40"/>
+      <c r="BE47" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="BF47" s="40"/>
+      <c r="BG47" s="40">
         <v>1798</v>
       </c>
-      <c r="BH47" s="13"/>
-      <c r="BI47" s="13"/>
-      <c r="BJ47" s="13"/>
-      <c r="BK47" s="13"/>
-      <c r="BL47" s="17"/>
-      <c r="BM47" s="13" t="s">
+      <c r="BH47" s="40"/>
+      <c r="BI47" s="40"/>
+      <c r="BJ47" s="40"/>
+      <c r="BK47" s="40"/>
+      <c r="BL47" s="44"/>
+      <c r="BM47" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="BN47" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="BO47" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="BP47" s="13"/>
-      <c r="BQ47" s="13" t="s">
+      <c r="BN47" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="BO47" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="BP47" s="40"/>
+      <c r="BQ47" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="BR47" s="13"/>
-      <c r="BS47" s="13" t="s">
+      <c r="BR47" s="40"/>
+      <c r="BS47" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="BT47" s="2" t="s">
+      <c r="BT47" s="41" t="s">
         <v>544</v>
       </c>
-      <c r="BU47" s="13"/>
-      <c r="BV47" s="13"/>
-      <c r="BW47" s="13"/>
-      <c r="BX47" s="13"/>
-      <c r="BY47" s="13"/>
-      <c r="BZ47" s="13"/>
-      <c r="CA47" s="13"/>
-      <c r="CB47" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="CC47" s="13" t="s">
+      <c r="BU47" s="40"/>
+      <c r="BV47" s="40"/>
+      <c r="BW47" s="40"/>
+      <c r="BX47" s="40"/>
+      <c r="BY47" s="40"/>
+      <c r="BZ47" s="40"/>
+      <c r="CA47" s="40"/>
+      <c r="CB47" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="CC47" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="CD47" s="13" t="s">
+      <c r="CD47" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="CE47" s="13" t="s">
+      <c r="CE47" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="CF47" s="2" t="s">
+      <c r="CF47" s="41" t="s">
         <v>595</v>
       </c>
-      <c r="CG47" s="35" t="s">
+      <c r="CG47" s="45" t="s">
         <v>668</v>
       </c>
-      <c r="CH47" s="13" t="s">
+      <c r="CH47" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="CI47" s="13"/>
-      <c r="CJ47" s="13"/>
+      <c r="CI47" s="40"/>
+      <c r="CJ47" s="40"/>
     </row>
     <row r="48" spans="1:88" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="13"/>
@@ -13490,335 +13758,335 @@
       <c r="CJ61" s="13"/>
     </row>
     <row r="62" spans="1:88" s="16" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="13"/>
-      <c r="B62" s="20">
+      <c r="A62" s="35"/>
+      <c r="B62" s="22">
         <v>5836</v>
       </c>
-      <c r="C62" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="D62" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="E62" s="13">
+      <c r="C62" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="D62" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="E62" s="35">
         <v>25</v>
       </c>
-      <c r="F62" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="G62" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="H62" s="25" t="s">
+      <c r="F62" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="G62" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="H62" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="I62" s="13"/>
-      <c r="J62" s="13"/>
-      <c r="K62" s="13"/>
-      <c r="L62" s="13"/>
-      <c r="M62" s="13"/>
-      <c r="N62" s="13"/>
-      <c r="O62" s="2" t="s">
+      <c r="I62" s="35"/>
+      <c r="J62" s="35"/>
+      <c r="K62" s="35"/>
+      <c r="L62" s="35"/>
+      <c r="M62" s="35"/>
+      <c r="N62" s="35"/>
+      <c r="O62" s="36" t="s">
         <v>238</v>
       </c>
-      <c r="P62" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q62" s="13"/>
-      <c r="R62" s="13" t="s">
+      <c r="P62" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q62" s="35"/>
+      <c r="R62" s="35" t="s">
         <v>251</v>
       </c>
-      <c r="S62" s="13" t="s">
+      <c r="S62" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="T62" s="13"/>
-      <c r="U62" s="30">
+      <c r="T62" s="35"/>
+      <c r="U62" s="33">
         <v>800</v>
       </c>
-      <c r="V62" s="30">
+      <c r="V62" s="33">
         <v>800</v>
       </c>
-      <c r="W62" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="X62" s="13"/>
-      <c r="Y62" s="13" t="s">
+      <c r="W62" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="X62" s="35"/>
+      <c r="Y62" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="Z62" s="13">
+      <c r="Z62" s="35">
         <v>1</v>
       </c>
-      <c r="AA62" s="13"/>
-      <c r="AB62" s="13"/>
-      <c r="AC62" s="13"/>
-      <c r="AD62" s="13"/>
-      <c r="AE62" s="13"/>
-      <c r="AF62" s="13"/>
-      <c r="AG62" s="13"/>
-      <c r="AH62" s="13"/>
-      <c r="AI62" s="13"/>
-      <c r="AJ62" s="13"/>
-      <c r="AK62" s="13"/>
-      <c r="AL62" s="13"/>
-      <c r="AM62" s="13"/>
-      <c r="AN62" s="13"/>
-      <c r="AO62" s="13"/>
-      <c r="AP62" s="13" t="s">
+      <c r="AA62" s="35"/>
+      <c r="AB62" s="35"/>
+      <c r="AC62" s="35"/>
+      <c r="AD62" s="35"/>
+      <c r="AE62" s="35"/>
+      <c r="AF62" s="35"/>
+      <c r="AG62" s="35"/>
+      <c r="AH62" s="35"/>
+      <c r="AI62" s="35"/>
+      <c r="AJ62" s="35"/>
+      <c r="AK62" s="35"/>
+      <c r="AL62" s="35"/>
+      <c r="AM62" s="35"/>
+      <c r="AN62" s="35"/>
+      <c r="AO62" s="35"/>
+      <c r="AP62" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="AQ62" s="13"/>
-      <c r="AR62" s="13"/>
-      <c r="AS62" s="13"/>
-      <c r="AT62" s="12" t="s">
+      <c r="AQ62" s="35"/>
+      <c r="AR62" s="35"/>
+      <c r="AS62" s="35"/>
+      <c r="AT62" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="AU62" s="2" t="s">
+      <c r="AU62" s="36" t="s">
         <v>505</v>
       </c>
-      <c r="AV62" s="2" t="s">
+      <c r="AV62" s="36" t="s">
         <v>506</v>
       </c>
-      <c r="AW62" s="2" t="s">
+      <c r="AW62" s="36" t="s">
         <v>507</v>
       </c>
-      <c r="AX62" s="1" t="s">
+      <c r="AX62" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="AY62" s="14"/>
-      <c r="AZ62" s="13"/>
-      <c r="BA62" s="13"/>
-      <c r="BB62" s="13"/>
-      <c r="BC62" s="13"/>
-      <c r="BD62" s="13"/>
-      <c r="BE62" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="BF62" s="13"/>
-      <c r="BG62" s="13">
+      <c r="AY62" s="38"/>
+      <c r="AZ62" s="35"/>
+      <c r="BA62" s="35"/>
+      <c r="BB62" s="35"/>
+      <c r="BC62" s="35"/>
+      <c r="BD62" s="35"/>
+      <c r="BE62" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="BF62" s="35"/>
+      <c r="BG62" s="35">
         <v>1798</v>
       </c>
-      <c r="BH62" s="13"/>
-      <c r="BI62" s="13"/>
-      <c r="BJ62" s="13"/>
-      <c r="BK62" s="13"/>
-      <c r="BL62" s="17"/>
-      <c r="BM62" s="13" t="s">
+      <c r="BH62" s="35"/>
+      <c r="BI62" s="35"/>
+      <c r="BJ62" s="35"/>
+      <c r="BK62" s="35"/>
+      <c r="BL62" s="39"/>
+      <c r="BM62" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="BN62" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="BO62" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="BP62" s="13"/>
-      <c r="BQ62" s="13" t="s">
+      <c r="BN62" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="BO62" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="BP62" s="35"/>
+      <c r="BQ62" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="BR62" s="13"/>
-      <c r="BS62" s="13" t="s">
+      <c r="BR62" s="35"/>
+      <c r="BS62" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="BT62" s="2" t="s">
+      <c r="BT62" s="36" t="s">
         <v>548</v>
       </c>
-      <c r="BU62" s="13"/>
-      <c r="BV62" s="13"/>
-      <c r="BW62" s="13"/>
-      <c r="BX62" s="13"/>
-      <c r="BY62" s="13"/>
-      <c r="BZ62" s="13"/>
-      <c r="CA62" s="13"/>
-      <c r="CB62" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="CC62" s="13" t="s">
+      <c r="BU62" s="35"/>
+      <c r="BV62" s="35"/>
+      <c r="BW62" s="35"/>
+      <c r="BX62" s="35"/>
+      <c r="BY62" s="35"/>
+      <c r="BZ62" s="35"/>
+      <c r="CA62" s="35"/>
+      <c r="CB62" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="CC62" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="CD62" s="13" t="s">
+      <c r="CD62" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="CE62" s="13" t="s">
+      <c r="CE62" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="CF62" s="2" t="s">
+      <c r="CF62" s="36" t="s">
         <v>610</v>
       </c>
-      <c r="CG62" s="20" t="s">
+      <c r="CG62" s="22" t="s">
         <v>683</v>
       </c>
-      <c r="CH62" s="13" t="s">
+      <c r="CH62" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="CI62" s="13"/>
-      <c r="CJ62" s="13"/>
+      <c r="CI62" s="35"/>
+      <c r="CJ62" s="35"/>
     </row>
     <row r="63" spans="1:88" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="13"/>
-      <c r="B63" s="21">
+      <c r="A63" s="46"/>
+      <c r="B63" s="54">
         <v>7922</v>
       </c>
-      <c r="C63" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="D63" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="E63" s="13">
+      <c r="C63" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="D63" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="E63" s="52">
         <v>25</v>
       </c>
-      <c r="F63" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="G63" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="H63" s="26" t="s">
+      <c r="F63" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="G63" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="H63" s="65" t="s">
         <v>166</v>
       </c>
-      <c r="I63" s="13"/>
-      <c r="J63" s="13"/>
-      <c r="K63" s="13"/>
-      <c r="L63" s="13"/>
-      <c r="M63" s="13"/>
-      <c r="N63" s="13"/>
-      <c r="O63" s="2" t="s">
+      <c r="I63" s="52"/>
+      <c r="J63" s="52"/>
+      <c r="K63" s="52"/>
+      <c r="L63" s="52"/>
+      <c r="M63" s="52"/>
+      <c r="N63" s="52"/>
+      <c r="O63" s="53" t="s">
         <v>239</v>
       </c>
-      <c r="P63" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q63" s="13"/>
-      <c r="R63" s="13" t="s">
+      <c r="P63" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q63" s="52"/>
+      <c r="R63" s="52" t="s">
         <v>251</v>
       </c>
-      <c r="S63" s="13" t="s">
+      <c r="S63" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="T63" s="13"/>
-      <c r="U63" s="31">
+      <c r="T63" s="52"/>
+      <c r="U63" s="66">
         <v>790</v>
       </c>
-      <c r="V63" s="31">
+      <c r="V63" s="66">
         <v>790</v>
       </c>
-      <c r="W63" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="X63" s="13"/>
-      <c r="Y63" s="13" t="s">
+      <c r="W63" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="X63" s="52"/>
+      <c r="Y63" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="Z63" s="13">
+      <c r="Z63" s="52">
         <v>1</v>
       </c>
-      <c r="AA63" s="13"/>
-      <c r="AB63" s="13"/>
-      <c r="AC63" s="13"/>
-      <c r="AD63" s="13"/>
-      <c r="AE63" s="13"/>
-      <c r="AF63" s="13"/>
-      <c r="AG63" s="13"/>
-      <c r="AH63" s="13"/>
-      <c r="AI63" s="13"/>
-      <c r="AJ63" s="13"/>
-      <c r="AK63" s="13"/>
-      <c r="AL63" s="13"/>
-      <c r="AM63" s="13"/>
-      <c r="AN63" s="13"/>
-      <c r="AO63" s="13"/>
-      <c r="AP63" s="13" t="s">
+      <c r="AA63" s="52"/>
+      <c r="AB63" s="52"/>
+      <c r="AC63" s="52"/>
+      <c r="AD63" s="52"/>
+      <c r="AE63" s="52"/>
+      <c r="AF63" s="52"/>
+      <c r="AG63" s="52"/>
+      <c r="AH63" s="52"/>
+      <c r="AI63" s="52"/>
+      <c r="AJ63" s="52"/>
+      <c r="AK63" s="52"/>
+      <c r="AL63" s="52"/>
+      <c r="AM63" s="52"/>
+      <c r="AN63" s="52"/>
+      <c r="AO63" s="52"/>
+      <c r="AP63" s="52" t="s">
         <v>98</v>
       </c>
-      <c r="AQ63" s="13"/>
-      <c r="AR63" s="13"/>
-      <c r="AS63" s="13"/>
-      <c r="AT63" s="34" t="s">
+      <c r="AQ63" s="52"/>
+      <c r="AR63" s="52"/>
+      <c r="AS63" s="52"/>
+      <c r="AT63" s="67" t="s">
         <v>313</v>
       </c>
-      <c r="AU63" s="2" t="s">
+      <c r="AU63" s="53" t="s">
         <v>508</v>
       </c>
-      <c r="AV63" s="2" t="s">
+      <c r="AV63" s="53" t="s">
         <v>509</v>
       </c>
-      <c r="AW63" s="2" t="s">
+      <c r="AW63" s="53" t="s">
         <v>510</v>
       </c>
-      <c r="AX63" s="1" t="s">
+      <c r="AX63" s="68" t="s">
         <v>102</v>
       </c>
-      <c r="AY63" s="14"/>
-      <c r="AZ63" s="13"/>
-      <c r="BA63" s="13"/>
-      <c r="BB63" s="13"/>
-      <c r="BC63" s="13"/>
-      <c r="BD63" s="13"/>
-      <c r="BE63" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="BF63" s="13"/>
-      <c r="BG63" s="13">
+      <c r="AY63" s="69"/>
+      <c r="AZ63" s="52"/>
+      <c r="BA63" s="52"/>
+      <c r="BB63" s="52"/>
+      <c r="BC63" s="52"/>
+      <c r="BD63" s="52"/>
+      <c r="BE63" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="BF63" s="52"/>
+      <c r="BG63" s="52">
         <v>1798</v>
       </c>
-      <c r="BH63" s="13"/>
-      <c r="BI63" s="13"/>
-      <c r="BJ63" s="13"/>
-      <c r="BK63" s="13"/>
-      <c r="BL63" s="17"/>
-      <c r="BM63" s="13" t="s">
+      <c r="BH63" s="52"/>
+      <c r="BI63" s="52"/>
+      <c r="BJ63" s="52"/>
+      <c r="BK63" s="52"/>
+      <c r="BL63" s="51"/>
+      <c r="BM63" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="BN63" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="BO63" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="BP63" s="13"/>
-      <c r="BQ63" s="13" t="s">
+      <c r="BN63" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="BO63" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="BP63" s="52"/>
+      <c r="BQ63" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="BR63" s="13"/>
-      <c r="BS63" s="13" t="s">
+      <c r="BR63" s="52"/>
+      <c r="BS63" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="BT63" s="2" t="s">
+      <c r="BT63" s="53" t="s">
         <v>549</v>
       </c>
-      <c r="BU63" s="13"/>
-      <c r="BV63" s="13"/>
-      <c r="BW63" s="13"/>
-      <c r="BX63" s="13"/>
-      <c r="BY63" s="13"/>
-      <c r="BZ63" s="13"/>
-      <c r="CA63" s="13"/>
-      <c r="CB63" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="CC63" s="13" t="s">
+      <c r="BU63" s="52"/>
+      <c r="BV63" s="52"/>
+      <c r="BW63" s="52"/>
+      <c r="BX63" s="52"/>
+      <c r="BY63" s="52"/>
+      <c r="BZ63" s="52"/>
+      <c r="CA63" s="52"/>
+      <c r="CB63" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="CC63" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="CD63" s="13" t="s">
+      <c r="CD63" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="CE63" s="13" t="s">
+      <c r="CE63" s="52" t="s">
         <v>97</v>
       </c>
-      <c r="CF63" s="2" t="s">
+      <c r="CF63" s="53" t="s">
         <v>611</v>
       </c>
-      <c r="CG63" s="21" t="s">
+      <c r="CG63" s="54" t="s">
         <v>684</v>
       </c>
-      <c r="CH63" s="13" t="s">
+      <c r="CH63" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="CI63" s="13"/>
-      <c r="CJ63" s="13"/>
+      <c r="CI63" s="52"/>
+      <c r="CJ63" s="55"/>
     </row>
     <row r="64" spans="1:88" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="13"/>
+      <c r="A64" s="56"/>
       <c r="B64" s="19">
         <v>7894</v>
       </c>
@@ -13979,10 +14247,10 @@
         <v>95</v>
       </c>
       <c r="CI64" s="13"/>
-      <c r="CJ64" s="13"/>
+      <c r="CJ64" s="57"/>
     </row>
     <row r="65" spans="1:88" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="13"/>
+      <c r="A65" s="56"/>
       <c r="B65" s="19">
         <v>7919</v>
       </c>
@@ -14143,10 +14411,10 @@
         <v>95</v>
       </c>
       <c r="CI65" s="13"/>
-      <c r="CJ65" s="13"/>
+      <c r="CJ65" s="57"/>
     </row>
     <row r="66" spans="1:88" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="13"/>
+      <c r="A66" s="56"/>
       <c r="B66" s="19">
         <v>7925</v>
       </c>
@@ -14307,10 +14575,10 @@
         <v>95</v>
       </c>
       <c r="CI66" s="13"/>
-      <c r="CJ66" s="13"/>
+      <c r="CJ66" s="57"/>
     </row>
     <row r="67" spans="1:88" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="13"/>
+      <c r="A67" s="56"/>
       <c r="B67" s="19">
         <v>7934</v>
       </c>
@@ -14471,10 +14739,10 @@
         <v>95</v>
       </c>
       <c r="CI67" s="13"/>
-      <c r="CJ67" s="13"/>
+      <c r="CJ67" s="57"/>
     </row>
     <row r="68" spans="1:88" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="13"/>
+      <c r="A68" s="56"/>
       <c r="B68" s="19">
         <v>7937</v>
       </c>
@@ -14635,10 +14903,10 @@
         <v>95</v>
       </c>
       <c r="CI68" s="13"/>
-      <c r="CJ68" s="13"/>
+      <c r="CJ68" s="57"/>
     </row>
     <row r="69" spans="1:88" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="13"/>
+      <c r="A69" s="56"/>
       <c r="B69" s="19">
         <v>7938</v>
       </c>
@@ -14799,10 +15067,10 @@
         <v>95</v>
       </c>
       <c r="CI69" s="13"/>
-      <c r="CJ69" s="13"/>
+      <c r="CJ69" s="57"/>
     </row>
     <row r="70" spans="1:88" x14ac:dyDescent="0.3">
-      <c r="A70" s="13"/>
+      <c r="A70" s="56"/>
       <c r="B70" s="19">
         <v>7921</v>
       </c>
@@ -14963,10 +15231,10 @@
         <v>95</v>
       </c>
       <c r="CI70" s="13"/>
-      <c r="CJ70" s="13"/>
+      <c r="CJ70" s="57"/>
     </row>
     <row r="71" spans="1:88" x14ac:dyDescent="0.3">
-      <c r="A71" s="13"/>
+      <c r="A71" s="56"/>
       <c r="B71" s="19">
         <v>7923</v>
       </c>
@@ -15127,10 +15395,10 @@
         <v>95</v>
       </c>
       <c r="CI71" s="13"/>
-      <c r="CJ71" s="13"/>
+      <c r="CJ71" s="57"/>
     </row>
     <row r="72" spans="1:88" x14ac:dyDescent="0.3">
-      <c r="A72" s="13"/>
+      <c r="A72" s="56"/>
       <c r="B72" s="19">
         <v>7901</v>
       </c>
@@ -15291,10 +15559,10 @@
         <v>95</v>
       </c>
       <c r="CI72" s="13"/>
-      <c r="CJ72" s="13"/>
+      <c r="CJ72" s="57"/>
     </row>
     <row r="73" spans="1:88" x14ac:dyDescent="0.3">
-      <c r="A73" s="13"/>
+      <c r="A73" s="56"/>
       <c r="B73" s="19">
         <v>7895</v>
       </c>
@@ -15455,174 +15723,175 @@
         <v>95</v>
       </c>
       <c r="CI73" s="13"/>
-      <c r="CJ73" s="13"/>
+      <c r="CJ73" s="57"/>
     </row>
     <row r="74" spans="1:88" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="13"/>
+      <c r="A74" s="58"/>
       <c r="B74" s="20">
         <v>7924</v>
       </c>
-      <c r="C74" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="D74" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="E74" s="13">
+      <c r="C74" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="D74" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="E74" s="59">
         <v>25</v>
       </c>
-      <c r="F74" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="G74" s="13" t="s">
+      <c r="F74" s="59" t="s">
+        <v>92</v>
+      </c>
+      <c r="G74" s="59" t="s">
         <v>92</v>
       </c>
       <c r="H74" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="I74" s="13"/>
-      <c r="J74" s="13"/>
-      <c r="K74" s="13"/>
-      <c r="L74" s="13"/>
-      <c r="M74" s="13"/>
-      <c r="N74" s="13"/>
-      <c r="O74" s="2" t="s">
+      <c r="I74" s="59"/>
+      <c r="J74" s="59"/>
+      <c r="K74" s="59"/>
+      <c r="L74" s="59"/>
+      <c r="M74" s="59"/>
+      <c r="N74" s="59"/>
+      <c r="O74" s="60" t="s">
         <v>250</v>
       </c>
-      <c r="P74" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q74" s="13"/>
-      <c r="R74" s="13" t="s">
+      <c r="P74" s="59" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q74" s="59"/>
+      <c r="R74" s="59" t="s">
         <v>251</v>
       </c>
-      <c r="S74" s="13" t="s">
+      <c r="S74" s="59" t="s">
         <v>88</v>
       </c>
-      <c r="T74" s="13"/>
+      <c r="T74" s="59"/>
       <c r="U74" s="30">
         <v>750</v>
       </c>
       <c r="V74" s="30">
         <v>750</v>
       </c>
-      <c r="W74" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="X74" s="13"/>
-      <c r="Y74" s="13" t="s">
+      <c r="W74" s="59" t="s">
+        <v>92</v>
+      </c>
+      <c r="X74" s="59"/>
+      <c r="Y74" s="59" t="s">
         <v>93</v>
       </c>
-      <c r="Z74" s="13">
+      <c r="Z74" s="59">
         <v>1</v>
       </c>
-      <c r="AA74" s="13"/>
-      <c r="AB74" s="13"/>
-      <c r="AC74" s="13"/>
-      <c r="AD74" s="13"/>
-      <c r="AE74" s="13"/>
-      <c r="AF74" s="13"/>
-      <c r="AG74" s="13"/>
-      <c r="AH74" s="13"/>
-      <c r="AI74" s="13"/>
-      <c r="AJ74" s="13"/>
-      <c r="AK74" s="13"/>
-      <c r="AL74" s="13"/>
-      <c r="AM74" s="13"/>
-      <c r="AN74" s="13"/>
-      <c r="AO74" s="13"/>
-      <c r="AP74" s="13" t="s">
+      <c r="AA74" s="59"/>
+      <c r="AB74" s="59"/>
+      <c r="AC74" s="59"/>
+      <c r="AD74" s="59"/>
+      <c r="AE74" s="59"/>
+      <c r="AF74" s="59"/>
+      <c r="AG74" s="59"/>
+      <c r="AH74" s="59"/>
+      <c r="AI74" s="59"/>
+      <c r="AJ74" s="59"/>
+      <c r="AK74" s="59"/>
+      <c r="AL74" s="59"/>
+      <c r="AM74" s="59"/>
+      <c r="AN74" s="59"/>
+      <c r="AO74" s="59"/>
+      <c r="AP74" s="59" t="s">
         <v>98</v>
       </c>
-      <c r="AQ74" s="13"/>
-      <c r="AR74" s="13"/>
-      <c r="AS74" s="13"/>
+      <c r="AQ74" s="59"/>
+      <c r="AR74" s="59"/>
+      <c r="AS74" s="59"/>
       <c r="AT74" s="12" t="s">
         <v>324</v>
       </c>
-      <c r="AU74" s="2" t="s">
+      <c r="AU74" s="60" t="s">
         <v>541</v>
       </c>
-      <c r="AV74" s="2" t="s">
+      <c r="AV74" s="60" t="s">
         <v>542</v>
       </c>
-      <c r="AW74" s="2" t="s">
+      <c r="AW74" s="60" t="s">
         <v>543</v>
       </c>
-      <c r="AX74" s="1" t="s">
+      <c r="AX74" s="61" t="s">
         <v>102</v>
       </c>
-      <c r="AY74" s="14"/>
-      <c r="AZ74" s="13"/>
-      <c r="BA74" s="13"/>
-      <c r="BB74" s="13"/>
-      <c r="BC74" s="13"/>
-      <c r="BD74" s="13"/>
-      <c r="BE74" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="BF74" s="13"/>
-      <c r="BG74" s="13">
+      <c r="AY74" s="62"/>
+      <c r="AZ74" s="59"/>
+      <c r="BA74" s="59"/>
+      <c r="BB74" s="59"/>
+      <c r="BC74" s="59"/>
+      <c r="BD74" s="59"/>
+      <c r="BE74" s="59" t="s">
+        <v>92</v>
+      </c>
+      <c r="BF74" s="59"/>
+      <c r="BG74" s="59">
         <v>1798</v>
       </c>
-      <c r="BH74" s="13"/>
-      <c r="BI74" s="13"/>
-      <c r="BJ74" s="13"/>
-      <c r="BK74" s="13"/>
-      <c r="BL74" s="17"/>
-      <c r="BM74" s="13" t="s">
+      <c r="BH74" s="59"/>
+      <c r="BI74" s="59"/>
+      <c r="BJ74" s="59"/>
+      <c r="BK74" s="59"/>
+      <c r="BL74" s="63"/>
+      <c r="BM74" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="BN74" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="BO74" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="BP74" s="13"/>
-      <c r="BQ74" s="13" t="s">
+      <c r="BN74" s="59" t="s">
+        <v>87</v>
+      </c>
+      <c r="BO74" s="59" t="s">
+        <v>87</v>
+      </c>
+      <c r="BP74" s="59"/>
+      <c r="BQ74" s="59" t="s">
         <v>91</v>
       </c>
-      <c r="BR74" s="13"/>
-      <c r="BS74" s="13" t="s">
+      <c r="BR74" s="59"/>
+      <c r="BS74" s="59" t="s">
         <v>90</v>
       </c>
-      <c r="BT74" s="2" t="s">
+      <c r="BT74" s="60" t="s">
         <v>544</v>
       </c>
-      <c r="BU74" s="13"/>
-      <c r="BV74" s="13"/>
-      <c r="BW74" s="13"/>
-      <c r="BX74" s="13"/>
-      <c r="BY74" s="13"/>
-      <c r="BZ74" s="13"/>
-      <c r="CA74" s="13"/>
-      <c r="CB74" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="CC74" s="13" t="s">
+      <c r="BU74" s="59"/>
+      <c r="BV74" s="59"/>
+      <c r="BW74" s="59"/>
+      <c r="BX74" s="59"/>
+      <c r="BY74" s="59"/>
+      <c r="BZ74" s="59"/>
+      <c r="CA74" s="59"/>
+      <c r="CB74" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="CC74" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="CD74" s="13" t="s">
+      <c r="CD74" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="CE74" s="13" t="s">
+      <c r="CE74" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="CF74" s="2" t="s">
+      <c r="CF74" s="60" t="s">
         <v>622</v>
       </c>
       <c r="CG74" s="20" t="s">
         <v>695</v>
       </c>
-      <c r="CH74" s="13" t="s">
+      <c r="CH74" s="59" t="s">
         <v>95</v>
       </c>
-      <c r="CI74" s="13"/>
-      <c r="CJ74" s="13"/>
+      <c r="CI74" s="59"/>
+      <c r="CJ74" s="64"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>